--- a/内部编号列表/[hack]Perfect Floral Blessing.xlsx
+++ b/内部编号列表/[hack]Perfect Floral Blessing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="366">
   <si>
     <t>种子包编号</t>
   </si>
@@ -337,7 +337,7 @@
     <t>64</t>
   </si>
   <si>
-    <t>未知 种植会崩溃</t>
+    <t>未知 会崩溃</t>
   </si>
   <si>
     <t>生存模式：毒雾</t>
@@ -373,6 +373,9 @@
     <t>65</t>
   </si>
   <si>
+    <t>重置植物</t>
+  </si>
+  <si>
     <t>生存模式：白天(困难)</t>
   </si>
   <si>
@@ -409,6 +412,9 @@
     <t>66</t>
   </si>
   <si>
+    <t>填补弹坑</t>
+  </si>
+  <si>
     <t>生存模式：夜晚(困难)</t>
   </si>
   <si>
@@ -445,7 +451,7 @@
     <t>67</t>
   </si>
   <si>
-    <t>豌豆射手的根茎</t>
+    <t>阳光(老虎机)</t>
   </si>
   <si>
     <t>生存模式：泳池(困难)</t>
@@ -484,622 +490,628 @@
     <t>68</t>
   </si>
   <si>
+    <t>钻石(老虎机)</t>
+  </si>
+  <si>
+    <t>生存模式：浓雾(困难)</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>僵王博士的加速</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>无尽的试炼</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>墓碑吞噬者</t>
+  </si>
+  <si>
+    <t>寒冰射手</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>购买潜水僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：屋顶(困难)</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>坚果保龄球 艺术锦标赛</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>我是僵尸</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>磁力菇</t>
+  </si>
+  <si>
+    <t>火爆辣椒</t>
+  </si>
+  <si>
+    <t>购买奖杯</t>
+  </si>
+  <si>
+    <t>生存模式：毒雾(困难)</t>
+  </si>
+  <si>
+    <t>老虎机</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>我也是僵尸</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>胆小菇</t>
+  </si>
+  <si>
+    <t>咖啡豆</t>
+  </si>
+  <si>
+    <t>普通僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：白天(无尽)</t>
+  </si>
+  <si>
+    <t>无草皮之地</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>你能铲了它么？</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>魅惑菇</t>
+  </si>
+  <si>
+    <t>土豆雷</t>
+  </si>
+  <si>
+    <t>路障僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：夜晚(无尽)</t>
+  </si>
+  <si>
+    <t>雨中种植物</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>完全傻了</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>寒冰生菜</t>
+  </si>
+  <si>
+    <t>神圣南瓜头</t>
+  </si>
+  <si>
+    <t>撑杆跳僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：泳池(无尽)</t>
+  </si>
+  <si>
+    <t>挑战 种太阳花的艺术</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>死亡飞艇</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>睡莲</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>机枪射手</t>
+  </si>
+  <si>
+    <t>铁桶僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：浓雾(无尽)</t>
+  </si>
+  <si>
+    <t>空袭</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>我烂了</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
+    <t>辣椒投手</t>
+  </si>
+  <si>
+    <t>扶梯僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：屋顶(无尽)</t>
+  </si>
+  <si>
+    <t>冰冻关卡</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>三线射手</t>
+  </si>
+  <si>
+    <t>吸金磁</t>
+  </si>
+  <si>
+    <t>矿工僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：毒雾(无尽)</t>
+  </si>
+  <si>
+    <t>禅境花园</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>三连击</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>仙人掌</t>
+  </si>
+  <si>
+    <t>金盏花</t>
+  </si>
+  <si>
+    <t>蹦极僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：毒雾(极限)</t>
+  </si>
+  <si>
+    <t>超乎寻常的压力</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>你所有的大脑都是属于我的</t>
+  </si>
+  <si>
+    <t>地刺</t>
+  </si>
+  <si>
+    <t>忧郁蘑菇</t>
+  </si>
+  <si>
+    <t>橄榄球僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：白天(极限)</t>
+  </si>
+  <si>
+    <t>坟墓模式</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>冻结和爆炸</t>
+  </si>
+  <si>
+    <t>地刺王</t>
+  </si>
+  <si>
+    <t>毁灭菇</t>
+  </si>
+  <si>
+    <t>气球僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：夜晚(极限)</t>
+  </si>
+  <si>
+    <t>你能把它挖出来吗？</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>蘑菇狂热</t>
+  </si>
+  <si>
+    <t>火炬树桩</t>
+  </si>
+  <si>
+    <t>寒冰菇</t>
+  </si>
+  <si>
+    <t>铁栅门僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：泳池(极限)</t>
+  </si>
+  <si>
+    <t>黑暗的暴风雨夜</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>咀嚼坚果</t>
+  </si>
+  <si>
+    <t>高坚果</t>
+  </si>
+  <si>
+    <t>棱镜草</t>
+  </si>
+  <si>
+    <t>雪橇车僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：浓雾(极限)</t>
+  </si>
+  <si>
+    <t>蹦极闪电战</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>豌豆战</t>
+  </si>
+  <si>
+    <t>海蘑菇</t>
+  </si>
+  <si>
+    <t>火焰菇</t>
+  </si>
+  <si>
+    <t>跳跳僵尸</t>
+  </si>
+  <si>
+    <t>生存模式：屋顶(极限)</t>
+  </si>
+  <si>
+    <t>找松鼠</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>最后一战</t>
+  </si>
+  <si>
+    <t>路灯花</t>
+  </si>
+  <si>
+    <t>光华花灵</t>
+  </si>
+  <si>
+    <t>舞者僵尸</t>
+  </si>
+  <si>
+    <t>植物僵尸</t>
+  </si>
+  <si>
+    <t>智慧树</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>爆破花园</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>三叶草</t>
+  </si>
+  <si>
+    <t>石榴炸弹</t>
+  </si>
+  <si>
+    <t>巨人僵尸</t>
+  </si>
+  <si>
+    <t>坚果保龄球模式</t>
+  </si>
+  <si>
+    <t>破罐者</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>来自远方</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>缠绕水草</t>
+  </si>
+  <si>
+    <t>模仿者</t>
+  </si>
+  <si>
+    <t>小鬼僵尸</t>
+  </si>
+  <si>
+    <t>晴天</t>
+  </si>
+  <si>
+    <t>一路向左</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>时间很重要？运气很重要！</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>裂荚射手</t>
+  </si>
+  <si>
+    <t>爆炸坚果(保龄球)</t>
+  </si>
+  <si>
+    <t>空白(会崩溃)</t>
+  </si>
+  <si>
+    <t>重要时间</t>
+  </si>
+  <si>
+    <t>第三个罐子</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>范围麻烦</t>
+  </si>
+  <si>
+    <t>宝石迷阵</t>
+  </si>
+  <si>
+    <t>连锁反应</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>大植物小僵尸</t>
+  </si>
+  <si>
+    <t>图鉴编号</t>
+  </si>
+  <si>
+    <t>隐形食脑者</t>
+  </si>
+  <si>
+    <t>M的意思是金属</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>我是僵尸无尽版</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>看星星</t>
+  </si>
+  <si>
+    <t>胆怯的制陶工</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>追加销售</t>
+  </si>
+  <si>
+    <t>僵尸水族馆</t>
+  </si>
+  <si>
+    <t>变戏法</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>宝石迷阵转转看</t>
+  </si>
+  <si>
+    <t>另一个连锁反应</t>
+  </si>
+  <si>
+    <t>摇旗僵尸</t>
+  </si>
+  <si>
+    <t>小僵尸大麻烦</t>
+  </si>
+  <si>
+    <t>罐子王牌</t>
+  </si>
+  <si>
+    <t>读报僵尸</t>
+  </si>
+  <si>
+    <t>伴舞僵尸</t>
+  </si>
+  <si>
+    <t>鸭子救生圈僵尸</t>
+  </si>
+  <si>
+    <t>潜水僵尸</t>
+  </si>
+  <si>
+    <t>雪橇僵尸小队</t>
+  </si>
+  <si>
+    <t>海豚骑士僵尸</t>
+  </si>
+  <si>
+    <t>玩偶匣僵尸</t>
+  </si>
+  <si>
+    <t>雪人僵尸</t>
+  </si>
+  <si>
+    <t>投石车僵尸</t>
+  </si>
+  <si>
+    <t>僵王博士</t>
+  </si>
+  <si>
+    <t>暴走巨人僵尸</t>
+  </si>
+  <si>
+    <t>豌豆射手僵尸</t>
+  </si>
+  <si>
+    <t>坚果墙僵尸</t>
+  </si>
+  <si>
+    <t>火爆辣椒僵尸</t>
+  </si>
+  <si>
+    <t>机枪射手僵尸</t>
+  </si>
+  <si>
+    <t>窝瓜僵尸</t>
+  </si>
+  <si>
+    <t>高坚果僵尸</t>
+  </si>
+  <si>
     <t>漂浮着的花芽</t>
-  </si>
-  <si>
-    <t>生存模式：浓雾(困难)</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>僵王博士的加速</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>无尽的试炼</t>
-  </si>
-  <si>
-    <t>0B</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>墓碑吞噬者</t>
-  </si>
-  <si>
-    <t>寒冰射手</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>选取会崩溃</t>
-  </si>
-  <si>
-    <t>生存模式：屋顶(困难)</t>
-  </si>
-  <si>
-    <t>2F</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>坚果保龄球 艺术锦标赛</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>我是僵尸</t>
-  </si>
-  <si>
-    <t>0C</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>磁力菇</t>
-  </si>
-  <si>
-    <t>火爆辣椒</t>
-  </si>
-  <si>
-    <t>生存模式：毒雾(困难)</t>
-  </si>
-  <si>
-    <t>老虎机</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>我也是僵尸</t>
-  </si>
-  <si>
-    <t>0D</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>胆小菇</t>
-  </si>
-  <si>
-    <t>咖啡豆</t>
-  </si>
-  <si>
-    <t>普通僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：白天(无尽)</t>
-  </si>
-  <si>
-    <t>无草皮之地</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>你能铲了它么？</t>
-  </si>
-  <si>
-    <t>0E</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>魅惑菇</t>
-  </si>
-  <si>
-    <t>土豆雷</t>
-  </si>
-  <si>
-    <t>路障僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：夜晚(无尽)</t>
-  </si>
-  <si>
-    <t>雨中种植物</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>完全傻了</t>
-  </si>
-  <si>
-    <t>0F</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>寒冰生菜</t>
-  </si>
-  <si>
-    <t>神圣南瓜头</t>
-  </si>
-  <si>
-    <t>撑杆跳僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：泳池(无尽)</t>
-  </si>
-  <si>
-    <t>挑战 种太阳花的艺术</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>死亡飞艇</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>睡莲</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>机枪射手</t>
-  </si>
-  <si>
-    <t>铁桶僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：浓雾(无尽)</t>
-  </si>
-  <si>
-    <t>空袭</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>我烂了</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>大蒜</t>
-  </si>
-  <si>
-    <t>辣椒投手</t>
-  </si>
-  <si>
-    <t>扶梯僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：屋顶(无尽)</t>
-  </si>
-  <si>
-    <t>冰冻关卡</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>三线射手</t>
-  </si>
-  <si>
-    <t>吸金磁</t>
-  </si>
-  <si>
-    <t>矿工僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：毒雾(无尽)</t>
-  </si>
-  <si>
-    <t>禅境花园</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>三连击</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>仙人掌</t>
-  </si>
-  <si>
-    <t>金盏花</t>
-  </si>
-  <si>
-    <t>蹦极僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：毒雾(极限)</t>
-  </si>
-  <si>
-    <t>超乎寻常的压力</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>你所有的大脑都是属于我的</t>
-  </si>
-  <si>
-    <t>地刺</t>
-  </si>
-  <si>
-    <t>忧郁蘑菇</t>
-  </si>
-  <si>
-    <t>橄榄球僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：白天(极限)</t>
-  </si>
-  <si>
-    <t>坟墓模式</t>
-  </si>
-  <si>
-    <t>5B</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>冻结和爆炸</t>
-  </si>
-  <si>
-    <t>地刺王</t>
-  </si>
-  <si>
-    <t>毁灭菇</t>
-  </si>
-  <si>
-    <t>气球僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：夜晚(极限)</t>
-  </si>
-  <si>
-    <t>你能把它挖出来吗？</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>蘑菇狂热</t>
-  </si>
-  <si>
-    <t>火炬树桩</t>
-  </si>
-  <si>
-    <t>寒冰菇</t>
-  </si>
-  <si>
-    <t>铁栅门僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：泳池(极限)</t>
-  </si>
-  <si>
-    <t>黑暗的暴风雨夜</t>
-  </si>
-  <si>
-    <t>5D</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>咀嚼坚果</t>
-  </si>
-  <si>
-    <t>高坚果</t>
-  </si>
-  <si>
-    <t>棱镜草</t>
-  </si>
-  <si>
-    <t>雪橇车僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：浓雾(极限)</t>
-  </si>
-  <si>
-    <t>蹦极闪电战</t>
-  </si>
-  <si>
-    <t>5E</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>豌豆战</t>
-  </si>
-  <si>
-    <t>海蘑菇</t>
-  </si>
-  <si>
-    <t>火焰菇</t>
-  </si>
-  <si>
-    <t>跳跳僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：屋顶(极限)</t>
-  </si>
-  <si>
-    <t>找松鼠</t>
-  </si>
-  <si>
-    <t>5F</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>最后一战</t>
-  </si>
-  <si>
-    <t>路灯花</t>
-  </si>
-  <si>
-    <t>光华花灵</t>
-  </si>
-  <si>
-    <t>舞者僵尸</t>
-  </si>
-  <si>
-    <t>植物僵尸</t>
-  </si>
-  <si>
-    <t>智慧树</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>爆破花园</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>三叶草</t>
-  </si>
-  <si>
-    <t>石榴炸弹</t>
-  </si>
-  <si>
-    <t>巨人僵尸</t>
-  </si>
-  <si>
-    <t>坚果保龄球模式</t>
-  </si>
-  <si>
-    <t>破罐者</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>来自远方</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>缠绕水草</t>
-  </si>
-  <si>
-    <t>模仿者</t>
-  </si>
-  <si>
-    <t>小鬼僵尸</t>
-  </si>
-  <si>
-    <t>晴天</t>
-  </si>
-  <si>
-    <t>一路向左</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>时间很重要？运气很重要！</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>裂荚射手</t>
-  </si>
-  <si>
-    <t>爆炸坚果(保龄球)</t>
-  </si>
-  <si>
-    <t>“最后一波”字幕</t>
-  </si>
-  <si>
-    <t>重要时间</t>
-  </si>
-  <si>
-    <t>第三个罐子</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>范围麻烦</t>
-  </si>
-  <si>
-    <t>宝石迷阵</t>
-  </si>
-  <si>
-    <t>连锁反应</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>大植物小僵尸</t>
-  </si>
-  <si>
-    <t>图鉴编号</t>
-  </si>
-  <si>
-    <t>隐形食脑者</t>
-  </si>
-  <si>
-    <t>M的意思是金属</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>我是僵尸无尽版</t>
-  </si>
-  <si>
-    <t>植物</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>看星星</t>
-  </si>
-  <si>
-    <t>胆怯的制陶工</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>追加销售</t>
-  </si>
-  <si>
-    <t>僵尸水族馆</t>
-  </si>
-  <si>
-    <t>变戏法</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>介绍</t>
-  </si>
-  <si>
-    <t>宝石迷阵转转看</t>
-  </si>
-  <si>
-    <t>另一个连锁反应</t>
-  </si>
-  <si>
-    <t>摇旗僵尸</t>
-  </si>
-  <si>
-    <t>小僵尸大麻烦</t>
-  </si>
-  <si>
-    <t>罐子王牌</t>
-  </si>
-  <si>
-    <t>读报僵尸</t>
-  </si>
-  <si>
-    <t>伴舞僵尸</t>
-  </si>
-  <si>
-    <t>鸭子救生圈僵尸</t>
-  </si>
-  <si>
-    <t>潜水僵尸</t>
-  </si>
-  <si>
-    <t>雪橇僵尸小队</t>
-  </si>
-  <si>
-    <t>海豚骑士僵尸</t>
-  </si>
-  <si>
-    <t>玩偶匣僵尸</t>
-  </si>
-  <si>
-    <t>雪人僵尸</t>
-  </si>
-  <si>
-    <t>投石车僵尸</t>
-  </si>
-  <si>
-    <t>僵王博士</t>
-  </si>
-  <si>
-    <t>暴走巨人僵尸</t>
-  </si>
-  <si>
-    <t>豌豆射手僵尸</t>
-  </si>
-  <si>
-    <t>坚果墙僵尸</t>
-  </si>
-  <si>
-    <t>火爆辣椒僵尸</t>
-  </si>
-  <si>
-    <t>机枪射手僵尸</t>
-  </si>
-  <si>
-    <t>窝瓜僵尸</t>
-  </si>
-  <si>
-    <t>高坚果僵尸</t>
   </si>
 </sst>
 </file>
@@ -2107,8 +2119,8 @@
   <sheetPr/>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1"/>
@@ -2637,7 +2649,7 @@
         <v>118</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>114</v>
@@ -2646,36 +2658,36 @@
         <v>115</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>48</v>
@@ -2684,54 +2696,54 @@
         <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>64</v>
@@ -2740,54 +2752,54 @@
         <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:19">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>80</v>
@@ -2796,54 +2808,54 @@
         <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>96</v>
@@ -2852,54 +2864,54 @@
         <v>97</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="M14" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
@@ -2908,25 +2920,25 @@
         <v>109</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>26</v>
@@ -2935,36 +2947,36 @@
         <v>19</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:19">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
@@ -2973,16 +2985,16 @@
         <v>36</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="M16" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>42</v>
@@ -2991,36 +3003,36 @@
         <v>35</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:19">
       <c r="A17" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>35</v>
@@ -3029,16 +3041,16 @@
         <v>52</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="M17" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>58</v>
@@ -3047,36 +3059,36 @@
         <v>51</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:19">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>51</v>
@@ -3085,54 +3097,54 @@
         <v>68</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="M18" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:19">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>67</v>
@@ -3141,54 +3153,54 @@
         <v>84</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>90</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:19">
       <c r="A20" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>83</v>
@@ -3197,54 +3209,54 @@
         <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="M20" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:19">
       <c r="A21" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>99</v>
@@ -3253,45 +3265,45 @@
         <v>112</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="M21" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:19">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -3300,54 +3312,54 @@
         <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:19">
       <c r="A23" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>42</v>
@@ -3356,193 +3368,193 @@
         <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>73</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>28</v>
@@ -3551,54 +3563,54 @@
         <v>13</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>44</v>
@@ -3607,54 +3619,54 @@
         <v>29</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:19">
       <c r="A28" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>60</v>
@@ -3663,54 +3675,54 @@
         <v>45</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:19">
       <c r="A29" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>76</v>
@@ -3719,54 +3731,54 @@
         <v>61</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>61</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:19">
       <c r="A30" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>92</v>
@@ -3775,54 +3787,54 @@
         <v>77</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>77</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>96</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>97</v>
@@ -3831,16 +3843,16 @@
         <v>93</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>93</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="11:19">
@@ -3851,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>109</v>
@@ -3860,21 +3872,21 @@
         <v>106</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:19">
       <c r="A33" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3891,30 +3903,30 @@
         <v>26</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>118</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>118</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:19">
       <c r="A34" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3922,7 +3934,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -3933,25 +3945,25 @@
         <v>42</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:19">
@@ -3989,25 +4001,25 @@
         <v>58</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:16">
@@ -4036,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>73</v>
@@ -4045,16 +4057,16 @@
         <v>74</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:16">
@@ -4083,7 +4095,7 @@
         <v>23</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>89</v>
@@ -4092,16 +4104,16 @@
         <v>90</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
@@ -4130,7 +4142,7 @@
         <v>39</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
@@ -4159,7 +4171,7 @@
         <v>55</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
@@ -4188,7 +4200,7 @@
         <v>71</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
@@ -4208,7 +4220,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>86</v>
@@ -4217,7 +4229,7 @@
         <v>87</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
@@ -4237,7 +4249,7 @@
         <v>65</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>102</v>
@@ -4246,7 +4258,7 @@
         <v>103</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:9">
@@ -4266,7 +4278,7 @@
         <v>81</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>114</v>
@@ -4275,18 +4287,18 @@
         <v>115</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>96</v>
@@ -4295,27 +4307,27 @@
         <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>10</v>
@@ -4324,201 +4336,201 @@
         <v>109</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="H48" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>26</v>
@@ -4527,27 +4539,27 @@
         <v>35</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>42</v>
@@ -4556,259 +4568,259 @@
         <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -4820,24 +4832,24 @@
         <v>14</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>28</v>
@@ -4849,24 +4861,24 @@
         <v>30</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>44</v>
@@ -4878,13 +4890,13 @@
         <v>46</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -4913,7 +4925,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -4942,7 +4954,7 @@
         <v>26</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -4971,7 +4983,7 @@
         <v>42</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="7:9">
@@ -4982,7 +4994,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="7:9">
@@ -4993,7 +5005,7 @@
         <v>74</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>156</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/内部编号列表/[hack]Perfect Floral Blessing.xlsx
+++ b/内部编号列表/[hack]Perfect Floral Blessing.xlsx
@@ -16,22 +16,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="366">
   <si>
-    <t>种子包编号</t>
-  </si>
-  <si>
-    <t>游戏模式编号</t>
-  </si>
-  <si>
-    <t>十六进制</t>
-  </si>
-  <si>
-    <t>十进制</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>模式名称</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种子包编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏模式编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十六进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模式名称</t>
+    </r>
   </si>
   <si>
     <t>00</t>
@@ -40,7 +88,15 @@
     <t>0</t>
   </si>
   <si>
-    <t>豌豆射手</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆射手</t>
+    </r>
   </si>
   <si>
     <t>1D</t>
@@ -49,7 +105,15 @@
     <t>29</t>
   </si>
   <si>
-    <t>杨桃</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨桃</t>
+    </r>
   </si>
   <si>
     <t>3A</t>
@@ -58,10 +122,53 @@
     <t>58</t>
   </si>
   <si>
-    <t>巨大坚果(保龄球)</t>
-  </si>
-  <si>
-    <t>冒险模式</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巨大坚果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冒险模式</t>
+    </r>
   </si>
   <si>
     <t>23</t>
@@ -70,7 +177,15 @@
     <t>35</t>
   </si>
   <si>
-    <t>保护传送门</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保护传送门</t>
+    </r>
   </si>
   <si>
     <t>47</t>
@@ -79,7 +194,15 @@
     <t>70</t>
   </si>
   <si>
-    <t>操纵荆棘</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操纵荆棘</t>
+    </r>
   </si>
   <si>
     <t>01</t>
@@ -88,7 +211,15 @@
     <t>1</t>
   </si>
   <si>
-    <t>向日葵</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向日葵</t>
+    </r>
   </si>
   <si>
     <t>1E</t>
@@ -97,7 +228,15 @@
     <t>30</t>
   </si>
   <si>
-    <t>香蒲</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香蒲</t>
+    </r>
   </si>
   <si>
     <t>3B</t>
@@ -106,10 +245,26 @@
     <t>59</t>
   </si>
   <si>
-    <t>幼苗</t>
-  </si>
-  <si>
-    <t>生存模式：白天</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幼苗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
   </si>
   <si>
     <t>24</t>
@@ -118,7 +273,33 @@
     <t>36</t>
   </si>
   <si>
-    <t>你看 它们像柱子一样</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它们像柱子一样</t>
+    </r>
   </si>
   <si>
     <t>48</t>
@@ -127,7 +308,15 @@
     <t>71</t>
   </si>
   <si>
-    <t>躲避盾牌</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>躲避盾牌</t>
+    </r>
   </si>
   <si>
     <t>02</t>
@@ -136,7 +325,15 @@
     <t>2</t>
   </si>
   <si>
-    <t>樱桃炸弹</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>樱桃炸弹</t>
+    </r>
   </si>
   <si>
     <t>1F</t>
@@ -145,7 +342,15 @@
     <t>31</t>
   </si>
   <si>
-    <t>南瓜头</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南瓜头</t>
+    </r>
   </si>
   <si>
     <t>3C</t>
@@ -154,10 +359,53 @@
     <t>60</t>
   </si>
   <si>
-    <t>双发射手(反向)</t>
-  </si>
-  <si>
-    <t>生存模式：夜晚</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双发射手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
   </si>
   <si>
     <t>25</t>
@@ -166,7 +414,15 @@
     <t>37</t>
   </si>
   <si>
-    <t>雪橇区</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇区</t>
+    </r>
   </si>
   <si>
     <t>49</t>
@@ -175,7 +431,15 @@
     <t>72</t>
   </si>
   <si>
-    <t>空中打击</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空中打击</t>
+    </r>
   </si>
   <si>
     <t>03</t>
@@ -184,7 +448,15 @@
     <t>3</t>
   </si>
   <si>
-    <t>坚果墙</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果墙</t>
+    </r>
   </si>
   <si>
     <t>20</t>
@@ -193,7 +465,15 @@
     <t>32</t>
   </si>
   <si>
-    <t>卷心菜投手</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷心菜投手</t>
+    </r>
   </si>
   <si>
     <t>3D</t>
@@ -202,10 +482,53 @@
     <t>61</t>
   </si>
   <si>
-    <t>竹子(半截)</t>
-  </si>
-  <si>
-    <t>生存模式：泳池</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半截</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
   </si>
   <si>
     <t>26</t>
@@ -214,7 +537,15 @@
     <t>38</t>
   </si>
   <si>
-    <t>僵尸快跑</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸快跑</t>
+    </r>
   </si>
   <si>
     <t>4A</t>
@@ -223,7 +554,15 @@
     <t>73</t>
   </si>
   <si>
-    <t>南瓜冰川</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南瓜冰川</t>
+    </r>
   </si>
   <si>
     <t>04</t>
@@ -232,7 +571,15 @@
     <t>4</t>
   </si>
   <si>
-    <t>爆炸坚果</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爆炸坚果</t>
+    </r>
   </si>
   <si>
     <t>21</t>
@@ -241,7 +588,15 @@
     <t>33</t>
   </si>
   <si>
-    <t>花盆</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花盆</t>
+    </r>
   </si>
   <si>
     <t>3E</t>
@@ -250,10 +605,53 @@
     <t>62</t>
   </si>
   <si>
-    <t>石榴炸弹(种子)</t>
-  </si>
-  <si>
-    <t>生存模式：浓雾</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石榴炸弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
   </si>
   <si>
     <t>27</t>
@@ -262,7 +660,15 @@
     <t>39</t>
   </si>
   <si>
-    <t>锤僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锤僵尸</t>
+    </r>
   </si>
   <si>
     <t>4B</t>
@@ -271,7 +677,15 @@
     <t>74</t>
   </si>
   <si>
-    <t>辛辣的战争</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辛辣的战争</t>
+    </r>
   </si>
   <si>
     <t>05</t>
@@ -280,7 +694,15 @@
     <t>5</t>
   </si>
   <si>
-    <t>竹子</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹子</t>
+    </r>
   </si>
   <si>
     <t>22</t>
@@ -289,7 +711,15 @@
     <t>34</t>
   </si>
   <si>
-    <t>玉米投手</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米投手</t>
+    </r>
   </si>
   <si>
     <t>3F</t>
@@ -298,10 +728,26 @@
     <t>63</t>
   </si>
   <si>
-    <t>玉米加农炮</t>
-  </si>
-  <si>
-    <t>生存模式：屋顶</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米加农炮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
   </si>
   <si>
     <t>28</t>
@@ -310,7 +756,15 @@
     <t>40</t>
   </si>
   <si>
-    <t>谁笑到最后</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谁笑到最后</t>
+    </r>
   </si>
   <si>
     <t>4C</t>
@@ -319,7 +773,15 @@
     <t>75</t>
   </si>
   <si>
-    <t>花瓶之星</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花瓶之星</t>
+    </r>
   </si>
   <si>
     <t>06</t>
@@ -328,25 +790,92 @@
     <t>6</t>
   </si>
   <si>
-    <t>大嘴花</t>
-  </si>
-  <si>
-    <t>双子向日葵</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大嘴花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双子向日葵</t>
+    </r>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>未知 会崩溃</t>
-  </si>
-  <si>
-    <t>生存模式：毒雾</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会崩溃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：毒雾</t>
+    </r>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>植物僵尸2</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
     <t>4D</t>
@@ -355,7 +884,15 @@
     <t>76</t>
   </si>
   <si>
-    <t>彩虹碰撞</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>彩虹碰撞</t>
+    </r>
   </si>
   <si>
     <t>07</t>
@@ -364,19 +901,78 @@
     <t>7</t>
   </si>
   <si>
-    <t>双发射手</t>
-  </si>
-  <si>
-    <t>窝瓜</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双发射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>窝瓜</t>
+    </r>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>重置植物</t>
-  </si>
-  <si>
-    <t>生存模式：白天(困难)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重置植物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>2A</t>
@@ -385,7 +981,24 @@
     <t>42</t>
   </si>
   <si>
-    <t>坚果保龄球2</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
     <t>4E</t>
@@ -394,7 +1007,15 @@
     <t>77</t>
   </si>
   <si>
-    <t>晚餐是凉菜</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚餐是凉菜</t>
+    </r>
   </si>
   <si>
     <t>08</t>
@@ -403,19 +1024,78 @@
     <t>8</t>
   </si>
   <si>
-    <t>小喷菇</t>
-  </si>
-  <si>
-    <t>叶子保护伞</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小喷菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叶子保护伞</t>
+    </r>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>填补弹坑</t>
-  </si>
-  <si>
-    <t>生存模式：夜晚(困难)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填补弹坑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>2B</t>
@@ -424,7 +1104,15 @@
     <t>43</t>
   </si>
   <si>
-    <t>跳跳舞会</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳跳舞会</t>
+    </r>
   </si>
   <si>
     <t>4F</t>
@@ -433,7 +1121,24 @@
     <t>78</t>
   </si>
   <si>
-    <t>陶器UP</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陶器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UP</t>
+    </r>
   </si>
   <si>
     <t>09</t>
@@ -442,19 +1147,105 @@
     <t>9</t>
   </si>
   <si>
-    <t>阳光菇</t>
-  </si>
-  <si>
-    <t>西瓜投手</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳光菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西瓜投手</t>
+    </r>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>阳光(老虎机)</t>
-  </si>
-  <si>
-    <t>生存模式：泳池(困难)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>2C</t>
@@ -463,7 +1254,15 @@
     <t>44</t>
   </si>
   <si>
-    <t>僵王博士的复仇</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵王博士的复仇</t>
+    </r>
   </si>
   <si>
     <t>50</t>
@@ -472,7 +1271,15 @@
     <t>79</t>
   </si>
   <si>
-    <t>这是陶艺种子</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是陶艺种子</t>
+    </r>
   </si>
   <si>
     <t>0A</t>
@@ -481,19 +1288,126 @@
     <t>10</t>
   </si>
   <si>
-    <t>大喷菇</t>
-  </si>
-  <si>
-    <t>“冰”瓜</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大喷菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瓜</t>
+    </r>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>钻石(老虎机)</t>
-  </si>
-  <si>
-    <t>生存模式：浓雾(困难)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>2E</t>
@@ -502,7 +1416,15 @@
     <t>45</t>
   </si>
   <si>
-    <t>僵王博士的加速</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵王博士的加速</t>
+    </r>
   </si>
   <si>
     <t>51</t>
@@ -511,7 +1433,15 @@
     <t>80</t>
   </si>
   <si>
-    <t>无尽的试炼</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽的试炼</t>
+    </r>
   </si>
   <si>
     <t>0B</t>
@@ -520,19 +1450,78 @@
     <t>11</t>
   </si>
   <si>
-    <t>墓碑吞噬者</t>
-  </si>
-  <si>
-    <t>寒冰射手</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>墓碑吞噬者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰射手</t>
+    </r>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>购买潜水僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：屋顶(困难)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买潜水僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>2F</t>
@@ -541,7 +1530,33 @@
     <t>46</t>
   </si>
   <si>
-    <t>坚果保龄球 艺术锦标赛</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艺术锦标赛</t>
+    </r>
   </si>
   <si>
     <t>52</t>
@@ -550,7 +1565,15 @@
     <t>81</t>
   </si>
   <si>
-    <t>我是僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是僵尸</t>
+    </r>
   </si>
   <si>
     <t>0C</t>
@@ -559,19 +1582,86 @@
     <t>12</t>
   </si>
   <si>
-    <t>磁力菇</t>
-  </si>
-  <si>
-    <t>火爆辣椒</t>
-  </si>
-  <si>
-    <t>购买奖杯</t>
-  </si>
-  <si>
-    <t>生存模式：毒雾(困难)</t>
-  </si>
-  <si>
-    <t>老虎机</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁力菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火爆辣椒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买奖杯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：毒雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
   </si>
   <si>
     <t>53</t>
@@ -580,7 +1670,15 @@
     <t>82</t>
   </si>
   <si>
-    <t>我也是僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我也是僵尸</t>
+    </r>
   </si>
   <si>
     <t>0D</t>
@@ -589,19 +1687,86 @@
     <t>13</t>
   </si>
   <si>
-    <t>胆小菇</t>
-  </si>
-  <si>
-    <t>咖啡豆</t>
-  </si>
-  <si>
-    <t>普通僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：白天(无尽)</t>
-  </si>
-  <si>
-    <t>无草皮之地</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胆小菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖啡豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无草皮之地</t>
+    </r>
   </si>
   <si>
     <t>54</t>
@@ -610,7 +1775,15 @@
     <t>83</t>
   </si>
   <si>
-    <t>你能铲了它么？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你能铲了它么？</t>
+    </r>
   </si>
   <si>
     <t>0E</t>
@@ -619,19 +1792,86 @@
     <t>14</t>
   </si>
   <si>
-    <t>魅惑菇</t>
-  </si>
-  <si>
-    <t>土豆雷</t>
-  </si>
-  <si>
-    <t>路障僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：夜晚(无尽)</t>
-  </si>
-  <si>
-    <t>雨中种植物</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魅惑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土豆雷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路障僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨中种植物</t>
+    </r>
   </si>
   <si>
     <t>55</t>
@@ -640,7 +1880,15 @@
     <t>84</t>
   </si>
   <si>
-    <t>完全傻了</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完全傻了</t>
+    </r>
   </si>
   <si>
     <t>0F</t>
@@ -649,19 +1897,104 @@
     <t>15</t>
   </si>
   <si>
-    <t>寒冰生菜</t>
-  </si>
-  <si>
-    <t>神圣南瓜头</t>
-  </si>
-  <si>
-    <t>撑杆跳僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：泳池(无尽)</t>
-  </si>
-  <si>
-    <t>挑战 种太阳花的艺术</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰生菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神圣南瓜头</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撑杆跳僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种太阳花的艺术</t>
+    </r>
   </si>
   <si>
     <t>56</t>
@@ -670,28 +2003,103 @@
     <t>85</t>
   </si>
   <si>
-    <t>死亡飞艇</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡飞艇</t>
+    </r>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>睡莲</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睡莲</t>
+    </r>
   </si>
   <si>
     <t>2D</t>
   </si>
   <si>
-    <t>机枪射手</t>
-  </si>
-  <si>
-    <t>铁桶僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：浓雾(无尽)</t>
-  </si>
-  <si>
-    <t>空袭</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机枪射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁桶僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空袭</t>
+    </r>
   </si>
   <si>
     <t>57</t>
@@ -700,25 +2108,100 @@
     <t>86</t>
   </si>
   <si>
-    <t>我烂了</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我烂了</t>
+    </r>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>大蒜</t>
-  </si>
-  <si>
-    <t>辣椒投手</t>
-  </si>
-  <si>
-    <t>扶梯僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：屋顶(无尽)</t>
-  </si>
-  <si>
-    <t>冰冻关卡</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大蒜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辣椒投手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扶梯僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰冻关卡</t>
+    </r>
   </si>
   <si>
     <t>87</t>
@@ -727,43 +2210,185 @@
     <t>18</t>
   </si>
   <si>
-    <t>三线射手</t>
-  </si>
-  <si>
-    <t>吸金磁</t>
-  </si>
-  <si>
-    <t>矿工僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：毒雾(无尽)</t>
-  </si>
-  <si>
-    <t>禅境花园</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三线射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸金磁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿工僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：毒雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禅境花园</t>
+    </r>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>三连击</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三连击</t>
+    </r>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>仙人掌</t>
-  </si>
-  <si>
-    <t>金盏花</t>
-  </si>
-  <si>
-    <t>蹦极僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：毒雾(极限)</t>
-  </si>
-  <si>
-    <t>超乎寻常的压力</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仙人掌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金盏花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蹦极僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：毒雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超乎寻常的压力</t>
+    </r>
   </si>
   <si>
     <t>5A</t>
@@ -772,22 +2397,97 @@
     <t>89</t>
   </si>
   <si>
-    <t>你所有的大脑都是属于我的</t>
-  </si>
-  <si>
-    <t>地刺</t>
-  </si>
-  <si>
-    <t>忧郁蘑菇</t>
-  </si>
-  <si>
-    <t>橄榄球僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：白天(极限)</t>
-  </si>
-  <si>
-    <t>坟墓模式</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你所有的大脑都是属于我的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地刺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忧郁蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橄榄球僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坟墓模式</t>
+    </r>
   </si>
   <si>
     <t>5B</t>
@@ -796,22 +2496,97 @@
     <t>90</t>
   </si>
   <si>
-    <t>冻结和爆炸</t>
-  </si>
-  <si>
-    <t>地刺王</t>
-  </si>
-  <si>
-    <t>毁灭菇</t>
-  </si>
-  <si>
-    <t>气球僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：夜晚(极限)</t>
-  </si>
-  <si>
-    <t>你能把它挖出来吗？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冻结和爆炸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地刺王</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毁灭菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气球僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你能把它挖出来吗？</t>
+    </r>
   </si>
   <si>
     <t>5C</t>
@@ -820,22 +2595,97 @@
     <t>91</t>
   </si>
   <si>
-    <t>蘑菇狂热</t>
-  </si>
-  <si>
-    <t>火炬树桩</t>
-  </si>
-  <si>
-    <t>寒冰菇</t>
-  </si>
-  <si>
-    <t>铁栅门僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：泳池(极限)</t>
-  </si>
-  <si>
-    <t>黑暗的暴风雨夜</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蘑菇狂热</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火炬树桩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁栅门僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑暗的暴风雨夜</t>
+    </r>
   </si>
   <si>
     <t>5D</t>
@@ -844,22 +2694,97 @@
     <t>92</t>
   </si>
   <si>
-    <t>咀嚼坚果</t>
-  </si>
-  <si>
-    <t>高坚果</t>
-  </si>
-  <si>
-    <t>棱镜草</t>
-  </si>
-  <si>
-    <t>雪橇车僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：浓雾(极限)</t>
-  </si>
-  <si>
-    <t>蹦极闪电战</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咀嚼坚果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高坚果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棱镜草</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇车僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蹦极闪电战</t>
+    </r>
   </si>
   <si>
     <t>5E</t>
@@ -868,22 +2793,97 @@
     <t>93</t>
   </si>
   <si>
-    <t>豌豆战</t>
-  </si>
-  <si>
-    <t>海蘑菇</t>
-  </si>
-  <si>
-    <t>火焰菇</t>
-  </si>
-  <si>
-    <t>跳跳僵尸</t>
-  </si>
-  <si>
-    <t>生存模式：屋顶(极限)</t>
-  </si>
-  <si>
-    <t>找松鼠</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆战</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火焰菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳跳僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找松鼠</t>
+    </r>
   </si>
   <si>
     <t>5F</t>
@@ -892,226 +2892,787 @@
     <t>94</t>
   </si>
   <si>
-    <t>最后一战</t>
-  </si>
-  <si>
-    <t>路灯花</t>
-  </si>
-  <si>
-    <t>光华花灵</t>
-  </si>
-  <si>
-    <t>舞者僵尸</t>
-  </si>
-  <si>
-    <t>植物僵尸</t>
-  </si>
-  <si>
-    <t>智慧树</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后一战</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路灯花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光华花灵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>舞者僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智慧树</t>
+    </r>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>爆破花园</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爆破花园</t>
+    </r>
   </si>
   <si>
     <t>1A</t>
   </si>
   <si>
-    <t>三叶草</t>
-  </si>
-  <si>
-    <t>石榴炸弹</t>
-  </si>
-  <si>
-    <t>巨人僵尸</t>
-  </si>
-  <si>
-    <t>坚果保龄球模式</t>
-  </si>
-  <si>
-    <t>破罐者</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三叶草</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石榴炸弹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巨人僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球模式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破罐者</t>
+    </r>
   </si>
   <si>
     <t>96</t>
   </si>
   <si>
-    <t>来自远方</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来自远方</t>
+    </r>
   </si>
   <si>
     <t>1B</t>
   </si>
   <si>
-    <t>缠绕水草</t>
-  </si>
-  <si>
-    <t>模仿者</t>
-  </si>
-  <si>
-    <t>小鬼僵尸</t>
-  </si>
-  <si>
-    <t>晴天</t>
-  </si>
-  <si>
-    <t>一路向左</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缠绕水草</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模仿者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小鬼僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晴天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一路向左</t>
+    </r>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>时间很重要？运气很重要！</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间很重要？运气很重要！</t>
+    </r>
   </si>
   <si>
     <t>1C</t>
   </si>
   <si>
-    <t>裂荚射手</t>
-  </si>
-  <si>
-    <t>爆炸坚果(保龄球)</t>
-  </si>
-  <si>
-    <t>空白(会崩溃)</t>
-  </si>
-  <si>
-    <t>重要时间</t>
-  </si>
-  <si>
-    <t>第三个罐子</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裂荚射手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爆炸坚果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会崩溃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重要时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三个罐子</t>
+    </r>
   </si>
   <si>
     <t>98</t>
   </si>
   <si>
-    <t>范围麻烦</t>
-  </si>
-  <si>
-    <t>宝石迷阵</t>
-  </si>
-  <si>
-    <t>连锁反应</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围麻烦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝石迷阵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连锁反应</t>
+    </r>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>大植物小僵尸</t>
-  </si>
-  <si>
-    <t>图鉴编号</t>
-  </si>
-  <si>
-    <t>隐形食脑者</t>
-  </si>
-  <si>
-    <t>M的意思是金属</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大植物小僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图鉴编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐形食脑者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的意思是金属</t>
+    </r>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>我是僵尸无尽版</t>
-  </si>
-  <si>
-    <t>植物</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>看星星</t>
-  </si>
-  <si>
-    <t>胆怯的制陶工</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是僵尸无尽版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看星星</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胆怯的制陶工</t>
+    </r>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>追加销售</t>
-  </si>
-  <si>
-    <t>僵尸水族馆</t>
-  </si>
-  <si>
-    <t>变戏法</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追加销售</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸水族馆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变戏法</t>
+    </r>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>介绍</t>
-  </si>
-  <si>
-    <t>宝石迷阵转转看</t>
-  </si>
-  <si>
-    <t>另一个连锁反应</t>
-  </si>
-  <si>
-    <t>摇旗僵尸</t>
-  </si>
-  <si>
-    <t>小僵尸大麻烦</t>
-  </si>
-  <si>
-    <t>罐子王牌</t>
-  </si>
-  <si>
-    <t>读报僵尸</t>
-  </si>
-  <si>
-    <t>伴舞僵尸</t>
-  </si>
-  <si>
-    <t>鸭子救生圈僵尸</t>
-  </si>
-  <si>
-    <t>潜水僵尸</t>
-  </si>
-  <si>
-    <t>雪橇僵尸小队</t>
-  </si>
-  <si>
-    <t>海豚骑士僵尸</t>
-  </si>
-  <si>
-    <t>玩偶匣僵尸</t>
-  </si>
-  <si>
-    <t>雪人僵尸</t>
-  </si>
-  <si>
-    <t>投石车僵尸</t>
-  </si>
-  <si>
-    <t>僵王博士</t>
-  </si>
-  <si>
-    <t>暴走巨人僵尸</t>
-  </si>
-  <si>
-    <t>豌豆射手僵尸</t>
-  </si>
-  <si>
-    <t>坚果墙僵尸</t>
-  </si>
-  <si>
-    <t>火爆辣椒僵尸</t>
-  </si>
-  <si>
-    <t>机枪射手僵尸</t>
-  </si>
-  <si>
-    <t>窝瓜僵尸</t>
-  </si>
-  <si>
-    <t>高坚果僵尸</t>
-  </si>
-  <si>
-    <t>漂浮着的花芽</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝石迷阵转转看</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另一个连锁反应</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摇旗僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小僵尸大麻烦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罐子王牌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读报僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伴舞僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸭子救生圈僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潜水僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇僵尸小队</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海豚骑士僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩偶匣僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪人僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投石车僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵王博士</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴走巨人僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆射手僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果墙僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火爆辣椒僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机枪射手僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>窝瓜僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高坚果僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漂浮着的花芽</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1124,13 +3685,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1275,6 +3842,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1637,10 +4210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1649,34 +4222,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1688,114 +4258,123 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2119,8 +4698,8 @@
   <sheetPr/>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1"/>
@@ -2129,6 +4708,7 @@
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
     <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
@@ -2146,2865 +4726,2865 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="5"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" customHeight="1" spans="1:22">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:19">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:19">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:19">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:19">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:19">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:19">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:19">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:19">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:19">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:19">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:19">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:19">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:19">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:19">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:19">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:19">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:19">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:19">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:19">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:19">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:19">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:19">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:19">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:19">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:19">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:19">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:19">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="S30" s="3" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:19">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="3" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="11:19">
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="3" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:19">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="K33" s="2" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="K33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="P33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S33" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:19">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="K34" s="2" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="K34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="P34" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="R34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="S34" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:19">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N35" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="P35" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="S35" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:16">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P36" s="3" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:16">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="P37" s="3" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="3" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="3" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="3" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="3" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="3" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="3" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:9">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="3" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:9">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="3" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="3" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="3" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="3" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="3" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="7:9">
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="3" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="7:9">
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="3" t="s">
         <v>365</v>
       </c>
     </row>

--- a/内部编号列表/[hack]Perfect Floral Blessing.xlsx
+++ b/内部编号列表/[hack]Perfect Floral Blessing.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PvZHB-CheatTables\内部编号列表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D9FB3-55AC-44F9-B4DB-68F171882B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="270" yWindow="1260" windowWidth="21600" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alpha v2.6.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Alpha v2.6.1-2.7.0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -136,7 +142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -154,7 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -287,7 +293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -373,7 +379,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -391,7 +397,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -496,7 +502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -514,7 +520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -619,7 +625,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -637,7 +643,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -829,7 +835,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -872,7 +878,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -951,7 +957,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -969,7 +975,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -995,7 +1001,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1074,7 +1080,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1092,7 +1098,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1135,7 +1141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>UP</t>
     </r>
@@ -1186,7 +1192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1204,7 +1210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1224,7 +1230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1242,7 +1248,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1316,7 +1322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>”</t>
     </r>
@@ -1348,7 +1354,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1366,7 +1372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1386,7 +1392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1404,7 +1410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1500,7 +1506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1518,7 +1524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1544,7 +1550,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1629,7 +1635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1647,7 +1653,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1734,7 +1740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1752,7 +1758,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1839,7 +1845,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1857,7 +1863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1944,7 +1950,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1962,7 +1968,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1982,7 +1988,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2067,7 +2073,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2085,7 +2091,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2169,7 +2175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2187,7 +2193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2257,7 +2263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2275,7 +2281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2356,7 +2362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2374,7 +2380,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2455,7 +2461,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2473,7 +2479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2554,7 +2560,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2572,7 +2578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2653,7 +2659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2671,7 +2677,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2752,7 +2758,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2770,7 +2776,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2851,7 +2857,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2869,7 +2875,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3144,7 +3150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3162,7 +3168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3182,7 +3188,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3200,7 +3206,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3678,14 +3684,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3697,151 +3697,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3849,202 +3705,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4104,251 +3780,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4378,61 +3812,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4690,19 +4080,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
@@ -4719,14 +4109,14 @@
     <col min="14" max="15" width="9" style="1"/>
     <col min="16" max="16" width="21.125" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="24.0583333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24" style="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="1"/>
     <col min="22" max="22" width="23.25" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
@@ -4752,7 +4142,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:22">
+    <row r="2" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4811,7 +4201,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:19">
+    <row r="3" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -4867,7 +4257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:19">
+    <row r="4" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -4923,7 +4313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:19">
+    <row r="5" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -4979,7 +4369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:19">
+    <row r="6" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -5035,7 +4425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:19">
+    <row r="7" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -5091,7 +4481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:19">
+    <row r="8" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -5147,7 +4537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:19">
+    <row r="9" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>102</v>
       </c>
@@ -5203,7 +4593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:19">
+    <row r="10" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>114</v>
       </c>
@@ -5259,7 +4649,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:19">
+    <row r="11" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>127</v>
       </c>
@@ -5315,7 +4705,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:19">
+    <row r="12" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>140</v>
       </c>
@@ -5371,7 +4761,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:19">
+    <row r="13" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>153</v>
       </c>
@@ -5427,7 +4817,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:19">
+    <row r="14" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>166</v>
       </c>
@@ -5483,7 +4873,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:19">
+    <row r="15" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>179</v>
       </c>
@@ -5539,7 +4929,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:19">
+    <row r="16" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>189</v>
       </c>
@@ -5595,7 +4985,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:19">
+    <row r="17" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>199</v>
       </c>
@@ -5651,7 +5041,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:19">
+    <row r="18" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>209</v>
       </c>
@@ -5707,7 +5097,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:19">
+    <row r="19" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>154</v>
       </c>
@@ -5763,7 +5153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:19">
+    <row r="20" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>167</v>
       </c>
@@ -5819,7 +5209,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:19">
+    <row r="21" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>180</v>
       </c>
@@ -5875,7 +5265,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:19">
+    <row r="22" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>190</v>
       </c>
@@ -5931,7 +5321,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:19">
+    <row r="23" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>200</v>
       </c>
@@ -5987,7 +5377,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:19">
+    <row r="24" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>210</v>
       </c>
@@ -6043,7 +5433,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:19">
+    <row r="25" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>219</v>
       </c>
@@ -6099,7 +5489,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:19">
+    <row r="26" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>229</v>
       </c>
@@ -6155,7 +5545,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:19">
+    <row r="27" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>236</v>
       </c>
@@ -6211,7 +5601,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:19">
+    <row r="28" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>244</v>
       </c>
@@ -6267,7 +5657,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:19">
+    <row r="29" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>300</v>
       </c>
@@ -6323,7 +5713,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:19">
+    <row r="30" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>308</v>
       </c>
@@ -6379,7 +5769,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:19">
+    <row r="31" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>316</v>
       </c>
@@ -6435,7 +5825,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="11:19">
+    <row r="32" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K32" s="3" t="s">
         <v>9</v>
       </c>
@@ -6464,8 +5854,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:19">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B33" s="4"/>
@@ -6504,8 +5894,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:19">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>333</v>
       </c>
       <c r="B34" s="4"/>
@@ -6513,7 +5903,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>334</v>
       </c>
       <c r="H34" s="4"/>
@@ -6546,7 +5936,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:19">
+    <row r="35" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -6602,7 +5992,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:16">
+    <row r="36" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -6649,7 +6039,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:16">
+    <row r="37" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -6696,7 +6086,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:9">
+    <row r="38" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -6725,7 +6115,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:9">
+    <row r="39" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
@@ -6754,7 +6144,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:9">
+    <row r="40" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
@@ -6783,7 +6173,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:9">
+    <row r="41" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -6812,7 +6202,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:9">
+    <row r="42" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>102</v>
       </c>
@@ -6841,7 +6231,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:9">
+    <row r="43" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>114</v>
       </c>
@@ -6870,7 +6260,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:9">
+    <row r="44" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>127</v>
       </c>
@@ -6899,7 +6289,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:9">
+    <row r="45" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>140</v>
       </c>
@@ -6928,7 +6318,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:9">
+    <row r="46" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>153</v>
       </c>
@@ -6957,7 +6347,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:9">
+    <row r="47" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>166</v>
       </c>
@@ -6986,7 +6376,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:9">
+    <row r="48" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>179</v>
       </c>
@@ -7015,7 +6405,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:9">
+    <row r="49" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>189</v>
       </c>
@@ -7044,7 +6434,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:9">
+    <row r="50" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>199</v>
       </c>
@@ -7073,7 +6463,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:9">
+    <row r="51" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>209</v>
       </c>
@@ -7102,7 +6492,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:9">
+    <row r="52" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>154</v>
       </c>
@@ -7131,7 +6521,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>167</v>
       </c>
@@ -7160,7 +6550,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:9">
+    <row r="54" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>180</v>
       </c>
@@ -7189,7 +6579,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:9">
+    <row r="55" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>190</v>
       </c>
@@ -7218,7 +6608,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:9">
+    <row r="56" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>200</v>
       </c>
@@ -7247,7 +6637,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:9">
+    <row r="57" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>210</v>
       </c>
@@ -7276,7 +6666,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:9">
+    <row r="58" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>219</v>
       </c>
@@ -7305,7 +6695,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:9">
+    <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>229</v>
       </c>
@@ -7334,7 +6724,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:9">
+    <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>236</v>
       </c>
@@ -7363,7 +6753,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:9">
+    <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>244</v>
       </c>
@@ -7392,7 +6782,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:9">
+    <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>300</v>
       </c>
@@ -7421,7 +6811,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:9">
+    <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>308</v>
       </c>
@@ -7450,7 +6840,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:9">
+    <row r="64" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>316</v>
       </c>
@@ -7479,7 +6869,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:9">
+    <row r="65" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
@@ -7508,7 +6898,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:9">
+    <row r="66" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>25</v>
       </c>
@@ -7537,7 +6927,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:9">
+    <row r="67" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>41</v>
       </c>
@@ -7566,7 +6956,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="7:9">
+    <row r="68" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G68" s="3" t="s">
         <v>57</v>
       </c>
@@ -7577,7 +6967,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="7:9">
+    <row r="69" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G69" s="3" t="s">
         <v>73</v>
       </c>
@@ -7596,7 +6986,7 @@
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="G34:I34"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/内部编号列表/[hack]Perfect Floral Blessing.xlsx
+++ b/内部编号列表/[hack]Perfect Floral Blessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PvZHB-CheatTables\内部编号列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D9FB3-55AC-44F9-B4DB-68F171882B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CF16C1-5505-457C-9C02-059DC28584FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="1260" windowWidth="21600" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="383">
   <si>
     <r>
       <rPr>
@@ -3678,6 +3678,260 @@
         <charset val="134"/>
       </rPr>
       <t>漂浮着的花芽</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BGM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十六进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ブクレシュティの人形師</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神々が恋した幻想郷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春の湊に</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虹の架かる幻想郷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不思議なお祓い棒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青空の影</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>佐渡のニッ岩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>古きユアンシェン</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘匿されたフォーシーズンズ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>無何有の郷　～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Deep Mountain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厄神様の通り道　～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Dark Road</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幻視の夜　～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ghostly Eyes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>エクステンドアッシュ　～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓬莱人</t>
     </r>
   </si>
 </sst>
@@ -3685,7 +3939,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3710,6 +3964,20 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3786,7 +4054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3802,6 +4070,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3810,6 +4081,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4088,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4105,7 +4382,7 @@
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="8.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.875" style="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
     <col min="16" max="16" width="21.125" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1"/>
@@ -4116,28 +4393,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -5855,17 +6132,17 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="K33" s="3" t="s">
         <v>25</v>
       </c>
@@ -5895,19 +6172,19 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="K34" s="3" t="s">
         <v>41</v>
       </c>
@@ -6143,6 +6420,17 @@
       <c r="I39" s="3" t="s">
         <v>213</v>
       </c>
+      <c r="K39" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
@@ -6172,6 +6460,21 @@
       <c r="I40" s="3" t="s">
         <v>223</v>
       </c>
+      <c r="K40" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
     </row>
     <row r="41" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
@@ -6201,6 +6504,15 @@
       <c r="I41" s="3" t="s">
         <v>348</v>
       </c>
+      <c r="K41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="42" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -6230,6 +6542,15 @@
       <c r="I42" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="K42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
@@ -6259,6 +6580,15 @@
       <c r="I43" s="3" t="s">
         <v>255</v>
       </c>
+      <c r="K43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
@@ -6288,6 +6618,15 @@
       <c r="I44" s="3" t="s">
         <v>295</v>
       </c>
+      <c r="K44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
@@ -6317,6 +6656,15 @@
       <c r="I45" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="K45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
@@ -6346,6 +6694,15 @@
       <c r="I46" s="3" t="s">
         <v>350</v>
       </c>
+      <c r="K46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
@@ -6375,6 +6732,15 @@
       <c r="I47" s="3" t="s">
         <v>351</v>
       </c>
+      <c r="K47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
@@ -6404,8 +6770,17 @@
       <c r="I48" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="K48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>375</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>189</v>
       </c>
@@ -6433,8 +6808,17 @@
       <c r="I49" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="K49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>199</v>
       </c>
@@ -6462,8 +6846,17 @@
       <c r="I50" s="3" t="s">
         <v>353</v>
       </c>
+      <c r="K50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>209</v>
       </c>
@@ -6491,8 +6884,17 @@
       <c r="I51" s="3" t="s">
         <v>354</v>
       </c>
+      <c r="K51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>154</v>
       </c>
@@ -6520,8 +6922,17 @@
       <c r="I52" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="K52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>167</v>
       </c>
@@ -6549,8 +6960,17 @@
       <c r="I53" s="3" t="s">
         <v>239</v>
       </c>
+      <c r="K53" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>180</v>
       </c>
@@ -6579,7 +6999,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>190</v>
       </c>
@@ -6608,7 +7028,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>200</v>
       </c>
@@ -6637,7 +7057,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>210</v>
       </c>
@@ -6666,7 +7086,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>219</v>
       </c>
@@ -6695,7 +7115,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>229</v>
       </c>
@@ -6724,7 +7144,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>236</v>
       </c>
@@ -6753,7 +7173,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>244</v>
       </c>
@@ -6782,7 +7202,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>300</v>
       </c>
@@ -6811,7 +7231,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>308</v>
       </c>
@@ -6840,7 +7260,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>316</v>
       </c>
@@ -6979,7 +7399,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="K39:M39"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A33:I33"/>
@@ -6988,5 +7409,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/内部编号列表/[hack]Perfect Floral Blessing.xlsx
+++ b/内部编号列表/[hack]Perfect Floral Blessing.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\PvZHB-CheatTables\内部编号列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CF16C1-5505-457C-9C02-059DC28584FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F988C0-952E-4FAF-A027-8E4EBBA7E29B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="1260" windowWidth="21600" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alpha v2.6.1-2.7.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Alpha v2.8.1" sheetId="2" r:id="rId1"/>
+    <sheet name="Alpha v2.6.1-2.7.0" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="399">
   <si>
     <r>
       <rPr>
@@ -3933,13 +3934,110 @@
       </rPr>
       <t>蓬莱人</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种子包编号</t>
+    </r>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夕阳</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玻璃触碰</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湿漉漉的玉米棒</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0F</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demonstration Minigame</t>
+  </si>
+  <si>
+    <t>いざ、倒れ逝くその時まで</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3979,13 +4077,99 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84DDE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDCDCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E5AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2B3E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCBEB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FB7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8AABEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFDB29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -4054,7 +4238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4073,6 +4257,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4082,11 +4275,44 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4094,6 +4320,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFDB29"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4362,10 +4593,3097 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FE7B3D-F440-4C3C-B20E-E51FED9BBC9B}">
+  <dimension ref="A1:U69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="28.875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="22.75" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="26.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="U15" s="18"/>
+    </row>
+    <row r="16" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="U19" s="20"/>
+    </row>
+    <row r="20" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="U21" s="21"/>
+    </row>
+    <row r="22" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U23" s="22"/>
+    </row>
+    <row r="24" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="U25" s="23"/>
+    </row>
+    <row r="26" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="K33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="K34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="2"/>
+      <c r="G68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E69" s="2"/>
+      <c r="G69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K39:M39"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K39" sqref="K39:M53"/>
     </sheetView>
   </sheetViews>
@@ -4393,28 +7711,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="11"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -6132,17 +9450,17 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="K33" s="3" t="s">
         <v>25</v>
       </c>
@@ -6172,19 +9490,19 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="K34" s="3" t="s">
         <v>41</v>
       </c>
@@ -6420,17 +9738,17 @@
       <c r="I39" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
     </row>
     <row r="40" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
@@ -6469,12 +9787,12 @@
       <c r="M40" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
     </row>
     <row r="41" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
